--- a/service-system/target/classes/static/钢防护栏.xlsx
+++ b/service-system/target/classes/static/钢防护栏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872570D3-DBF8-4445-81BB-71B845576424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9760C9-528C-45B4-B388-16613F2CF1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防护栏" sheetId="1" r:id="rId1"/>
@@ -744,30 +744,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.46484375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.59765625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.59765625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" style="4" customWidth="1"/>
-    <col min="15" max="16" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
     </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="35"/>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="O3" s="34"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="O4" s="34"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -965,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
@@ -984,7 +984,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
@@ -1002,7 +1002,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
@@ -1021,7 +1021,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -1040,7 +1040,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
@@ -1058,7 +1058,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
@@ -1077,7 +1077,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
@@ -1096,7 +1096,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
@@ -1114,7 +1114,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
@@ -1132,7 +1132,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
@@ -1150,7 +1150,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
@@ -1167,7 +1167,7 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
@@ -1185,7 +1185,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
@@ -1203,7 +1203,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
@@ -1220,7 +1220,7 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
@@ -1238,7 +1238,7 @@
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
@@ -1256,7 +1256,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
@@ -1273,7 +1273,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
@@ -1291,7 +1291,7 @@
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
@@ -1309,7 +1309,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="8"/>
@@ -1326,7 +1326,7 @@
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
@@ -1344,7 +1344,7 @@
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
     </row>
-    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
@@ -1362,7 +1362,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
@@ -1379,7 +1379,7 @@
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="5"/>
       <c r="C31" s="8"/>
@@ -1427,13 +1427,11 @@
     <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.70866141732283505" right="0.78740157480314998" top="0.74803149606299202" bottom="2.3222222222222202" header="0.31496062992126" footer="0.47244094488188998"/>
+  <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.74803149606299213" bottom="2.5590551181102366" header="0.31496062992125984" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
 第&amp;P页，共&amp;N页</oddHeader>
-    <oddFooter>&amp;L      检测：&amp;R复核：</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1446,23 +1444,23 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" customWidth="1"/>
-    <col min="5" max="6" width="3.59765625" customWidth="1"/>
-    <col min="7" max="7" width="9.46484375" customWidth="1"/>
-    <col min="8" max="8" width="5.3984375" customWidth="1"/>
-    <col min="9" max="10" width="3.59765625" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" customWidth="1"/>
-    <col min="12" max="13" width="3.59765625" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="16" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="16" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +1484,7 @@
       <c r="O1" s="21"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1508,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="40"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1532,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
